--- a/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/出口总额/中国向北美洲各国(地区)出口总额.xlsx
+++ b/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/出口总额/中国向北美洲各国(地区)出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,518 +468,299 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315784</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>2221613.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.6</v>
+      </c>
       <c r="D2" t="n">
-        <v>5527351</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>30584270.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33936.8</v>
+      </c>
       <c r="G2" t="n">
-        <v>5209922</v>
+        <v>28328655.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>334609</v>
+        <v>2526610.281</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>5.1275</v>
       </c>
       <c r="D3" t="n">
-        <v>5764093</v>
+        <v>35007506.4384</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>53.5288</v>
       </c>
       <c r="F3" t="n">
-        <v>1109</v>
+        <v>35501.601</v>
       </c>
       <c r="G3" t="n">
-        <v>5428269</v>
+        <v>32445335.9001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>430346</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
+        <v>2812479.6</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>7426926</v>
+        <v>38011009.5</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>44.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1959</v>
+        <v>20775.7</v>
       </c>
       <c r="G4" t="n">
-        <v>6994579</v>
+        <v>35177679.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>563218</v>
+        <v>2921668.8</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4</v>
+        <v>188.4</v>
       </c>
       <c r="D5" t="n">
-        <v>9813121</v>
+        <v>39781517.5</v>
       </c>
       <c r="E5" t="n">
-        <v>56.9</v>
+        <v>16.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3163.4</v>
+        <v>19003.5</v>
       </c>
       <c r="G5" t="n">
-        <v>9246677</v>
+        <v>36840640.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>816117.9</v>
+        <v>3000367.8663</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6</v>
+        <v>99.16470000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>13323048.3</v>
+        <v>42625672.5735</v>
       </c>
       <c r="E6" t="n">
-        <v>45.2</v>
+        <v>77.75800000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>12669.8</v>
+        <v>18872.7506</v>
       </c>
       <c r="G6" t="n">
-        <v>12494202.8</v>
+        <v>39606255.0339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1165367</v>
+        <v>2942264.2</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>17466840</v>
+        <v>43900169.7</v>
       </c>
       <c r="E7" t="n">
-        <v>167</v>
+        <v>8.1</v>
       </c>
       <c r="F7" t="n">
-        <v>12223</v>
+        <v>36482.7</v>
       </c>
       <c r="G7" t="n">
-        <v>16289075</v>
+        <v>40921389.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1551671.9007</v>
+        <v>2733884.8</v>
       </c>
       <c r="C8" t="n">
-        <v>41.5948</v>
+        <v>26.3</v>
       </c>
       <c r="D8" t="n">
-        <v>21911386.2006</v>
+        <v>41284093.7</v>
       </c>
       <c r="E8" t="n">
-        <v>49.4525</v>
+        <v>57.1</v>
       </c>
       <c r="F8" t="n">
-        <v>14781.7445</v>
+        <v>23024.9</v>
       </c>
       <c r="G8" t="n">
-        <v>20344841.5081</v>
+        <v>38527100.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1935568.5428</v>
+        <v>3137545.5</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8906</v>
+        <v>47.1</v>
       </c>
       <c r="D9" t="n">
-        <v>25211508.7961</v>
+        <v>46124082</v>
       </c>
       <c r="E9" t="n">
-        <v>55.923</v>
+        <v>249.3</v>
       </c>
       <c r="F9" t="n">
-        <v>8199.2233</v>
+        <v>13202.4</v>
       </c>
       <c r="G9" t="n">
-        <v>23267655.2164</v>
+        <v>42973037.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2179587.6535</v>
+        <v>3515324.3</v>
       </c>
       <c r="C10" t="n">
-        <v>5.1322</v>
+        <v>59.3</v>
       </c>
       <c r="D10" t="n">
-        <v>27427243.2853</v>
+        <v>51372292.1</v>
       </c>
       <c r="E10" t="n">
-        <v>141.0344</v>
+        <v>397.4</v>
       </c>
       <c r="F10" t="n">
-        <v>9154.006799999999</v>
+        <v>16929.8</v>
       </c>
       <c r="G10" t="n">
-        <v>25238355.4584</v>
+        <v>47839581.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767458</v>
+        <v>3693195.8466</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>233.6645</v>
       </c>
       <c r="D11" t="n">
-        <v>23855383</v>
+        <v>45563627.6434</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>100.7837</v>
       </c>
       <c r="F11" t="n">
-        <v>7643</v>
+        <v>3689.4203</v>
       </c>
       <c r="G11" t="n">
-        <v>22080222</v>
+        <v>41866407.9283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2221613.4</v>
+        <v>4209456.5839</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6</v>
+        <v>107.3396</v>
       </c>
       <c r="D12" t="n">
-        <v>30584270.7</v>
+        <v>49386185.0655</v>
       </c>
       <c r="E12" t="n">
-        <v>51.6</v>
+        <v>159.6808</v>
       </c>
       <c r="F12" t="n">
-        <v>33936.8</v>
+        <v>3558.8655</v>
       </c>
       <c r="G12" t="n">
-        <v>28328655.2</v>
+        <v>45172902.5957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2526610.281</v>
+        <v>5151026</v>
       </c>
       <c r="C13" t="n">
-        <v>5.1275</v>
+        <v>286</v>
       </c>
       <c r="D13" t="n">
-        <v>35007506.4384</v>
+        <v>62766802</v>
       </c>
       <c r="E13" t="n">
-        <v>53.5288</v>
+        <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>35501.601</v>
+        <v>7912</v>
       </c>
       <c r="G13" t="n">
-        <v>32445335.9001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2812479.6</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>38011009.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20775.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>35177679.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2921668.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>39781517.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19003.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>36840640.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3000367.8663</v>
-      </c>
-      <c r="C16" t="n">
-        <v>99.16470000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42625672.5735</v>
-      </c>
-      <c r="E16" t="n">
-        <v>77.75800000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18872.7506</v>
-      </c>
-      <c r="G16" t="n">
-        <v>39606255.0339</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2942264.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>43900169.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>36482.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>40921389.7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2733884.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>41284093.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>23024.9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>38527100.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3137545.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>46124082</v>
-      </c>
-      <c r="E19" t="n">
-        <v>249.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13202.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>42973037.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3515324.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>51372292.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>397.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16929.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>47839581.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3693195.8466</v>
-      </c>
-      <c r="C21" t="n">
-        <v>233.6645</v>
-      </c>
-      <c r="D21" t="n">
-        <v>45563627.6434</v>
-      </c>
-      <c r="E21" t="n">
-        <v>100.7837</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3689.4203</v>
-      </c>
-      <c r="G21" t="n">
-        <v>41866407.9283</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4209456.5839</v>
-      </c>
-      <c r="C22" t="n">
-        <v>107.3396</v>
-      </c>
-      <c r="D22" t="n">
-        <v>49386185.0655</v>
-      </c>
-      <c r="E22" t="n">
-        <v>159.6808</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3558.8655</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45172902.5957</v>
+        <v>57607523</v>
       </c>
     </row>
   </sheetData>
